--- a/Báo cáo diễn tập/Bao cao dien tap PCCC ngay 07-12-2023.xlsx
+++ b/Báo cáo diễn tập/Bao cao dien tap PCCC ngay 07-12-2023.xlsx
@@ -505,7 +505,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07/12/2023 - 14:52</t>
+          <t>07/12/2023 - 15:20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1 phút 55 giây</t>
+          <t>3 phút 20 giây</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -611,7 +611,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45267.61982694358</v>
+        <v>45267.63931008666</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45267.62085750421</v>
+        <v>45267.6410082065</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45267.62116461701</v>
+        <v>45267.64163422473</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
